--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H2">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I2">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J2">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.6605755</v>
+        <v>1.2391355</v>
       </c>
       <c r="N2">
-        <v>3.321151</v>
+        <v>2.478271</v>
       </c>
       <c r="O2">
-        <v>0.418347651036244</v>
+        <v>0.4554244343957924</v>
       </c>
       <c r="P2">
-        <v>0.3376807885245403</v>
+        <v>0.3738439521513966</v>
       </c>
       <c r="Q2">
-        <v>37.456508894821</v>
+        <v>75.9069240457995</v>
       </c>
       <c r="R2">
-        <v>149.826035579284</v>
+        <v>303.627696183198</v>
       </c>
       <c r="S2">
-        <v>0.02793010318738848</v>
+        <v>0.07207800047054427</v>
       </c>
       <c r="T2">
-        <v>0.01575526720546053</v>
+        <v>0.0426859183319315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H3">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I3">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J3">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.264467</v>
       </c>
       <c r="O3">
-        <v>0.02220899686616725</v>
+        <v>0.03240020532899807</v>
       </c>
       <c r="P3">
-        <v>0.02688990205465503</v>
+        <v>0.03989450245498713</v>
       </c>
       <c r="Q3">
-        <v>1.988469366571334</v>
+        <v>5.400237095841001</v>
       </c>
       <c r="R3">
-        <v>11.930816199428</v>
+        <v>32.40142257504601</v>
       </c>
       <c r="S3">
-        <v>0.001482737079134928</v>
+        <v>0.005127836450074382</v>
       </c>
       <c r="T3">
-        <v>0.001254609697670034</v>
+        <v>0.004555198670157916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H4">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I4">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J4">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3906076666666667</v>
+        <v>0.1900623333333333</v>
       </c>
       <c r="N4">
-        <v>1.171823</v>
+        <v>0.570187</v>
       </c>
       <c r="O4">
-        <v>0.09840552255934656</v>
+        <v>0.06985437077565602</v>
       </c>
       <c r="P4">
-        <v>0.1191460775650347</v>
+        <v>0.08601196622376987</v>
       </c>
       <c r="Q4">
-        <v>8.810680117155334</v>
+        <v>11.642832523401</v>
       </c>
       <c r="R4">
-        <v>52.86408070293201</v>
+        <v>69.856995140406</v>
       </c>
       <c r="S4">
-        <v>0.006569838249320819</v>
+        <v>0.01105554069868287</v>
       </c>
       <c r="T4">
-        <v>0.005559031938777967</v>
+        <v>0.009820941985734823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H5">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I5">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J5">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4123475</v>
+        <v>0.2942155</v>
       </c>
       <c r="N5">
-        <v>0.824695</v>
+        <v>0.588431</v>
       </c>
       <c r="O5">
-        <v>0.1038824239160867</v>
+        <v>0.1081342013669815</v>
       </c>
       <c r="P5">
-        <v>0.08385154962609223</v>
+        <v>0.08876404985911487</v>
       </c>
       <c r="Q5">
-        <v>9.301051232844999</v>
+        <v>18.0230439783195</v>
       </c>
       <c r="R5">
-        <v>37.20420493138</v>
+        <v>72.09217591327801</v>
       </c>
       <c r="S5">
-        <v>0.006935492077332028</v>
+        <v>0.01711391929893173</v>
       </c>
       <c r="T5">
-        <v>0.003912285255324818</v>
+        <v>0.01013517795671934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H6">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I6">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J6">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.847826</v>
+        <v>0.7239923333333333</v>
       </c>
       <c r="N6">
-        <v>2.543478</v>
+        <v>2.171977</v>
       </c>
       <c r="O6">
-        <v>0.2135922248566564</v>
+        <v>0.2660918026440396</v>
       </c>
       <c r="P6">
-        <v>0.2586102398339675</v>
+        <v>0.3276399012303069</v>
       </c>
       <c r="Q6">
-        <v>19.123853212492</v>
+        <v>44.350299911571</v>
       </c>
       <c r="R6">
-        <v>114.743119274952</v>
+        <v>266.101799469426</v>
       </c>
       <c r="S6">
-        <v>0.01426003675530009</v>
+        <v>0.04211316659289517</v>
       </c>
       <c r="T6">
-        <v>0.01206605045094618</v>
+        <v>0.03741028839898202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H7">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I7">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J7">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.569855</v>
+        <v>0.1852753333333333</v>
       </c>
       <c r="N7">
-        <v>1.709565</v>
+        <v>0.555826</v>
       </c>
       <c r="O7">
-        <v>0.143563180765499</v>
+        <v>0.06809498548853234</v>
       </c>
       <c r="P7">
-        <v>0.1738214423957104</v>
+        <v>0.08384562808042469</v>
       </c>
       <c r="Q7">
-        <v>12.85384427041</v>
+        <v>11.349590625798</v>
       </c>
       <c r="R7">
-        <v>77.12306562246</v>
+        <v>68.09754375478801</v>
       </c>
       <c r="S7">
-        <v>0.009584694554297148</v>
+        <v>0.01077709061130139</v>
       </c>
       <c r="T7">
-        <v>0.008110035761729334</v>
+        <v>0.009573587086627797</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>408.782051</v>
       </c>
       <c r="I8">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J8">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.6605755</v>
+        <v>1.2391355</v>
       </c>
       <c r="N8">
-        <v>3.321151</v>
+        <v>2.478271</v>
       </c>
       <c r="O8">
-        <v>0.418347651036244</v>
+        <v>0.4554244343957924</v>
       </c>
       <c r="P8">
-        <v>0.3376807885245403</v>
+        <v>0.3738439521513966</v>
       </c>
       <c r="Q8">
-        <v>226.2711529101168</v>
+        <v>168.8454503856368</v>
       </c>
       <c r="R8">
-        <v>1357.626917460701</v>
+        <v>1013.072702313821</v>
       </c>
       <c r="S8">
-        <v>0.1687230560342674</v>
+        <v>0.1603284892034649</v>
       </c>
       <c r="T8">
-        <v>0.142764071459397</v>
+        <v>0.1424242227533324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>408.782051</v>
       </c>
       <c r="I9">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J9">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.264467</v>
       </c>
       <c r="O9">
-        <v>0.02220899686616725</v>
+        <v>0.03240020532899807</v>
       </c>
       <c r="P9">
-        <v>0.02688990205465503</v>
+        <v>0.03989450245498713</v>
       </c>
       <c r="Q9">
         <v>12.01215140909078</v>
@@ -1013,10 +1013,10 @@
         <v>108.109362681817</v>
       </c>
       <c r="S9">
-        <v>0.008957071501258572</v>
+        <v>0.01140623027214612</v>
       </c>
       <c r="T9">
-        <v>0.0113684640314916</v>
+        <v>0.0151987038216989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>408.782051</v>
       </c>
       <c r="I10">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J10">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3906076666666667</v>
+        <v>0.1900623333333333</v>
       </c>
       <c r="N10">
-        <v>1.171823</v>
+        <v>0.570187</v>
       </c>
       <c r="O10">
-        <v>0.09840552255934656</v>
+        <v>0.06985437077565602</v>
       </c>
       <c r="P10">
-        <v>0.1191460775650347</v>
+        <v>0.08601196622376987</v>
       </c>
       <c r="Q10">
-        <v>53.22446770544145</v>
+        <v>25.89802347928189</v>
       </c>
       <c r="R10">
-        <v>479.020209348973</v>
+        <v>233.082211313537</v>
       </c>
       <c r="S10">
-        <v>0.03968775838883234</v>
+        <v>0.02459166633335796</v>
       </c>
       <c r="T10">
-        <v>0.05037236262662102</v>
+        <v>0.0327681840682695</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>408.782051</v>
       </c>
       <c r="I11">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J11">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4123475</v>
+        <v>0.2942155</v>
       </c>
       <c r="N11">
-        <v>0.824695</v>
+        <v>0.588431</v>
       </c>
       <c r="O11">
-        <v>0.1038824239160867</v>
+        <v>0.1081342013669815</v>
       </c>
       <c r="P11">
-        <v>0.08385154962609223</v>
+        <v>0.08876404985911487</v>
       </c>
       <c r="Q11">
-        <v>56.18675225824083</v>
+        <v>40.09000517533017</v>
       </c>
       <c r="R11">
-        <v>337.120513549445</v>
+        <v>240.540031051981</v>
       </c>
       <c r="S11">
-        <v>0.04189663785120887</v>
+        <v>0.03806777113176244</v>
       </c>
       <c r="T11">
-        <v>0.03545060610378975</v>
+        <v>0.03381665193958454</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>408.782051</v>
       </c>
       <c r="I12">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J12">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.847826</v>
+        <v>0.7239923333333333</v>
       </c>
       <c r="N12">
-        <v>2.543478</v>
+        <v>2.171977</v>
       </c>
       <c r="O12">
-        <v>0.2135922248566564</v>
+        <v>0.2660918026440396</v>
       </c>
       <c r="P12">
-        <v>0.2586102398339675</v>
+        <v>0.3276399012303069</v>
       </c>
       <c r="Q12">
-        <v>115.5253503903753</v>
+        <v>98.65169030942522</v>
       </c>
       <c r="R12">
-        <v>1039.728153513378</v>
+        <v>887.8652127848271</v>
       </c>
       <c r="S12">
-        <v>0.08614350489050863</v>
+        <v>0.09367546729007818</v>
       </c>
       <c r="T12">
-        <v>0.1093347682617876</v>
+        <v>0.1248217551926785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>408.782051</v>
       </c>
       <c r="I13">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J13">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.569855</v>
+        <v>0.1852753333333333</v>
       </c>
       <c r="N13">
-        <v>1.709565</v>
+        <v>0.555826</v>
       </c>
       <c r="O13">
-        <v>0.143563180765499</v>
+        <v>0.06809498548853234</v>
       </c>
       <c r="P13">
-        <v>0.1738214423957104</v>
+        <v>0.08384562808042469</v>
       </c>
       <c r="Q13">
-        <v>77.64883189086834</v>
+        <v>25.24574358656956</v>
       </c>
       <c r="R13">
-        <v>698.839487017815</v>
+        <v>227.211692279126</v>
       </c>
       <c r="S13">
-        <v>0.05790021417057368</v>
+        <v>0.02397228897082013</v>
       </c>
       <c r="T13">
-        <v>0.07348791422747236</v>
+        <v>0.03194286905511694</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H14">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I14">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J14">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.6605755</v>
+        <v>1.2391355</v>
       </c>
       <c r="N14">
-        <v>3.321151</v>
+        <v>2.478271</v>
       </c>
       <c r="O14">
-        <v>0.418347651036244</v>
+        <v>0.4554244343957924</v>
       </c>
       <c r="P14">
-        <v>0.3376807885245403</v>
+        <v>0.3738439521513966</v>
       </c>
       <c r="Q14">
-        <v>99.69492180978399</v>
+        <v>70.052327266123</v>
       </c>
       <c r="R14">
-        <v>598.1695308587039</v>
+        <v>420.313963596738</v>
       </c>
       <c r="S14">
-        <v>0.07433926800879451</v>
+        <v>0.06651872330650378</v>
       </c>
       <c r="T14">
-        <v>0.06290175640305685</v>
+        <v>0.05909041813180159</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H15">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I15">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J15">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.264467</v>
       </c>
       <c r="O15">
-        <v>0.02220899686616725</v>
+        <v>0.03240020532899807</v>
       </c>
       <c r="P15">
-        <v>0.02688990205465503</v>
+        <v>0.03989450245498713</v>
       </c>
       <c r="Q15">
-        <v>5.292546045285334</v>
+        <v>4.983724226847334</v>
       </c>
       <c r="R15">
-        <v>47.632914407568</v>
+        <v>44.853518041626</v>
       </c>
       <c r="S15">
-        <v>0.003946479838361632</v>
+        <v>0.004732333468696829</v>
       </c>
       <c r="T15">
-        <v>0.005008937808201807</v>
+        <v>0.006305793681184653</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H16">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I16">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J16">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3906076666666667</v>
+        <v>0.1900623333333333</v>
       </c>
       <c r="N16">
-        <v>1.171823</v>
+        <v>0.570187</v>
       </c>
       <c r="O16">
-        <v>0.09840552255934656</v>
+        <v>0.06985437077565602</v>
       </c>
       <c r="P16">
-        <v>0.1191460775650347</v>
+        <v>0.08601196622376987</v>
       </c>
       <c r="Q16">
-        <v>23.45066561962134</v>
+        <v>10.74483684442067</v>
       </c>
       <c r="R16">
-        <v>211.055990576592</v>
+        <v>96.703531599786</v>
       </c>
       <c r="S16">
-        <v>0.01748640035856437</v>
+        <v>0.01020284203139083</v>
       </c>
       <c r="T16">
-        <v>0.02219402998945225</v>
+        <v>0.01359519933183964</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H17">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I17">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J17">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4123475</v>
+        <v>0.2942155</v>
       </c>
       <c r="N17">
-        <v>0.824695</v>
+        <v>0.588431</v>
       </c>
       <c r="O17">
-        <v>0.1038824239160867</v>
+        <v>0.1081342013669815</v>
       </c>
       <c r="P17">
-        <v>0.08385154962609223</v>
+        <v>0.08876404985911487</v>
       </c>
       <c r="Q17">
-        <v>24.75584625388</v>
+        <v>16.632951354203</v>
       </c>
       <c r="R17">
-        <v>148.53507752328</v>
+        <v>99.79770812521801</v>
       </c>
       <c r="S17">
-        <v>0.01845963120331258</v>
+        <v>0.01579394621248819</v>
       </c>
       <c r="T17">
-        <v>0.01561951383626309</v>
+        <v>0.01403019840514381</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H18">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I18">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J18">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.847826</v>
+        <v>0.7239923333333333</v>
       </c>
       <c r="N18">
-        <v>2.543478</v>
+        <v>2.171977</v>
       </c>
       <c r="O18">
-        <v>0.2135922248566564</v>
+        <v>0.2660918026440396</v>
       </c>
       <c r="P18">
-        <v>0.2586102398339675</v>
+        <v>0.3276399012303069</v>
       </c>
       <c r="Q18">
-        <v>50.900393735968</v>
+        <v>40.92962220260067</v>
       </c>
       <c r="R18">
-        <v>458.103543623712</v>
+        <v>368.366599823406</v>
       </c>
       <c r="S18">
-        <v>0.03795477184796729</v>
+        <v>0.03886503590368451</v>
       </c>
       <c r="T18">
-        <v>0.04817282730370714</v>
+        <v>0.05178732636691306</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H19">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I19">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J19">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.569855</v>
+        <v>0.1852753333333333</v>
       </c>
       <c r="N19">
-        <v>1.709565</v>
+        <v>0.555826</v>
       </c>
       <c r="O19">
-        <v>0.143563180765499</v>
+        <v>0.06809498548853234</v>
       </c>
       <c r="P19">
-        <v>0.1738214423957104</v>
+        <v>0.08384562808042469</v>
       </c>
       <c r="Q19">
-        <v>34.21202448664</v>
+        <v>10.47421229155867</v>
       </c>
       <c r="R19">
-        <v>307.90822037976</v>
+        <v>94.26791062402802</v>
       </c>
       <c r="S19">
-        <v>0.02551079645047852</v>
+        <v>0.009945868416747208</v>
       </c>
       <c r="T19">
-        <v>0.03237872688871777</v>
+        <v>0.01325278419855082</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H20">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I20">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J20">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.6605755</v>
+        <v>1.2391355</v>
       </c>
       <c r="N20">
-        <v>3.321151</v>
+        <v>2.478271</v>
       </c>
       <c r="O20">
-        <v>0.418347651036244</v>
+        <v>0.4554244343957924</v>
       </c>
       <c r="P20">
-        <v>0.3376807885245403</v>
+        <v>0.3738439521513966</v>
       </c>
       <c r="Q20">
-        <v>40.05487199067675</v>
+        <v>33.357376485469</v>
       </c>
       <c r="R20">
-        <v>160.219487962707</v>
+        <v>133.429505941876</v>
       </c>
       <c r="S20">
-        <v>0.02986761822888205</v>
+        <v>0.03167475204982709</v>
       </c>
       <c r="T20">
-        <v>0.0168482122256964</v>
+        <v>0.01875837107517488</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H21">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I21">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J21">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.264467</v>
       </c>
       <c r="O21">
-        <v>0.02220899686616725</v>
+        <v>0.03240020532899807</v>
       </c>
       <c r="P21">
-        <v>0.02688990205465503</v>
+        <v>0.03989450245498713</v>
       </c>
       <c r="Q21">
-        <v>2.1264097558865</v>
+        <v>2.373139791675333</v>
       </c>
       <c r="R21">
-        <v>12.758458535319</v>
+        <v>14.238838750052</v>
       </c>
       <c r="S21">
-        <v>0.001585594751164631</v>
+        <v>0.002253433045420677</v>
       </c>
       <c r="T21">
-        <v>0.001341642142345606</v>
+        <v>0.002001786779225627</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H22">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I22">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J22">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3906076666666667</v>
+        <v>0.1900623333333333</v>
       </c>
       <c r="N22">
-        <v>1.171823</v>
+        <v>0.570187</v>
       </c>
       <c r="O22">
-        <v>0.09840552255934656</v>
+        <v>0.06985437077565602</v>
       </c>
       <c r="P22">
-        <v>0.1191460775650347</v>
+        <v>0.08601196622376987</v>
       </c>
       <c r="Q22">
-        <v>9.421878190368501</v>
+        <v>5.116454825728666</v>
       </c>
       <c r="R22">
-        <v>56.53126914221101</v>
+        <v>30.698728954372</v>
       </c>
       <c r="S22">
-        <v>0.007025588818620062</v>
+        <v>0.004858368824349654</v>
       </c>
       <c r="T22">
-        <v>0.005944662737392018</v>
+        <v>0.004315823139697287</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H23">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I23">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J23">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.4123475</v>
+        <v>0.2942155</v>
       </c>
       <c r="N23">
-        <v>0.824695</v>
+        <v>0.588431</v>
       </c>
       <c r="O23">
-        <v>0.1038824239160867</v>
+        <v>0.1081342013669815</v>
       </c>
       <c r="P23">
-        <v>0.08385154962609223</v>
+        <v>0.08876404985911487</v>
       </c>
       <c r="Q23">
-        <v>9.946266416778752</v>
+        <v>7.920245365709</v>
       </c>
       <c r="R23">
-        <v>39.78506566711501</v>
+        <v>31.680981462836</v>
       </c>
       <c r="S23">
-        <v>0.007416608102211518</v>
+        <v>0.007520729582612961</v>
       </c>
       <c r="T23">
-        <v>0.004183681013441031</v>
+        <v>0.004453914463001112</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H24">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I24">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J24">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.847826</v>
+        <v>0.7239923333333333</v>
       </c>
       <c r="N24">
-        <v>2.543478</v>
+        <v>2.171977</v>
       </c>
       <c r="O24">
-        <v>0.2135922248566564</v>
+        <v>0.2660918026440396</v>
       </c>
       <c r="P24">
-        <v>0.2586102398339675</v>
+        <v>0.3276399012303069</v>
       </c>
       <c r="Q24">
-        <v>20.450477500341</v>
+        <v>19.48978528626866</v>
       </c>
       <c r="R24">
-        <v>122.702865002046</v>
+        <v>116.938711717612</v>
       </c>
       <c r="S24">
-        <v>0.01524925743666588</v>
+        <v>0.01850667472952643</v>
       </c>
       <c r="T24">
-        <v>0.01290307400518369</v>
+        <v>0.01643999003044667</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H25">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I25">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J25">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.569855</v>
+        <v>0.1852753333333333</v>
       </c>
       <c r="N25">
-        <v>1.709565</v>
+        <v>0.555826</v>
       </c>
       <c r="O25">
-        <v>0.143563180765499</v>
+        <v>0.06809498548853234</v>
       </c>
       <c r="P25">
-        <v>0.1738214423957104</v>
+        <v>0.08384562808042469</v>
       </c>
       <c r="Q25">
-        <v>13.7455171886175</v>
+        <v>4.987589369742667</v>
       </c>
       <c r="R25">
-        <v>82.47310313170502</v>
+        <v>29.925536218456</v>
       </c>
       <c r="S25">
-        <v>0.01024958611386208</v>
+        <v>0.00473600364470423</v>
       </c>
       <c r="T25">
-        <v>0.008672630041098002</v>
+        <v>0.004207122772783989</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H26">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I26">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J26">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.6605755</v>
+        <v>1.2391355</v>
       </c>
       <c r="N26">
-        <v>3.321151</v>
+        <v>2.478271</v>
       </c>
       <c r="O26">
-        <v>0.418347651036244</v>
+        <v>0.4554244343957924</v>
       </c>
       <c r="P26">
-        <v>0.3376807885245403</v>
+        <v>0.3738439521513966</v>
       </c>
       <c r="Q26">
-        <v>45.08935303697366</v>
+        <v>58.92942116855617</v>
       </c>
       <c r="R26">
-        <v>270.5361182218419</v>
+        <v>353.576527011337</v>
       </c>
       <c r="S26">
-        <v>0.03362166737192609</v>
+        <v>0.05595688272328485</v>
       </c>
       <c r="T26">
-        <v>0.02844878605265936</v>
+        <v>0.04970804358699704</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H27">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I27">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J27">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.264467</v>
       </c>
       <c r="O27">
-        <v>0.02220899686616725</v>
+        <v>0.03240020532899807</v>
       </c>
       <c r="P27">
-        <v>0.02688990205465503</v>
+        <v>0.03989450245498713</v>
       </c>
       <c r="Q27">
-        <v>2.393677358568222</v>
+        <v>4.192408666683223</v>
       </c>
       <c r="R27">
-        <v>21.543096227114</v>
+        <v>37.731678000149</v>
       </c>
       <c r="S27">
-        <v>0.001784887529424022</v>
+        <v>0.003980933724406781</v>
       </c>
       <c r="T27">
-        <v>0.002265408920277538</v>
+        <v>0.005304559978841034</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H28">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I28">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J28">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.3906076666666667</v>
+        <v>0.1900623333333333</v>
       </c>
       <c r="N28">
-        <v>1.171823</v>
+        <v>0.570187</v>
       </c>
       <c r="O28">
-        <v>0.09840552255934656</v>
+        <v>0.06985437077565602</v>
       </c>
       <c r="P28">
-        <v>0.1191460775650347</v>
+        <v>0.08601196622376987</v>
       </c>
       <c r="Q28">
-        <v>10.60611034022955</v>
+        <v>9.038772022332111</v>
       </c>
       <c r="R28">
-        <v>95.45499306206599</v>
+        <v>81.348948200989</v>
       </c>
       <c r="S28">
-        <v>0.007908632303433869</v>
+        <v>0.008582835126947141</v>
       </c>
       <c r="T28">
-        <v>0.01003776757473101</v>
+        <v>0.01143655405270008</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H29">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I29">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J29">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.4123475</v>
+        <v>0.2942155</v>
       </c>
       <c r="N29">
-        <v>0.824695</v>
+        <v>0.588431</v>
       </c>
       <c r="O29">
-        <v>0.1038824239160867</v>
+        <v>0.1081342013669815</v>
       </c>
       <c r="P29">
-        <v>0.08385154962609223</v>
+        <v>0.08876404985911487</v>
       </c>
       <c r="Q29">
-        <v>11.19640871578166</v>
+        <v>13.99197191414283</v>
       </c>
       <c r="R29">
-        <v>67.17845229468999</v>
+        <v>83.95183148485701</v>
       </c>
       <c r="S29">
-        <v>0.008348798646400174</v>
+        <v>0.01328618397977672</v>
       </c>
       <c r="T29">
-        <v>0.007064289342368931</v>
+        <v>0.01180248398820801</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H30">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I30">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J30">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.847826</v>
+        <v>0.7239923333333333</v>
       </c>
       <c r="N30">
-        <v>2.543478</v>
+        <v>2.171977</v>
       </c>
       <c r="O30">
-        <v>0.2135922248566564</v>
+        <v>0.2660918026440396</v>
       </c>
       <c r="P30">
-        <v>0.2586102398339675</v>
+        <v>0.3276399012303069</v>
       </c>
       <c r="Q30">
-        <v>23.02088994323066</v>
+        <v>34.43081820656878</v>
       </c>
       <c r="R30">
-        <v>207.188009489076</v>
+        <v>309.877363859119</v>
       </c>
       <c r="S30">
-        <v>0.01716593058326503</v>
+        <v>0.03269404684870274</v>
       </c>
       <c r="T30">
-        <v>0.02178728442387773</v>
+        <v>0.04356453647964854</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H31">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I31">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J31">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.569855</v>
+        <v>0.1852753333333333</v>
       </c>
       <c r="N31">
-        <v>1.709565</v>
+        <v>0.555826</v>
       </c>
       <c r="O31">
-        <v>0.143563180765499</v>
+        <v>0.06809498548853234</v>
       </c>
       <c r="P31">
-        <v>0.1738214423957104</v>
+        <v>0.08384562808042469</v>
       </c>
       <c r="Q31">
-        <v>15.47318581713666</v>
+        <v>8.811117226602445</v>
       </c>
       <c r="R31">
-        <v>139.25867235423</v>
+        <v>79.30005503942201</v>
       </c>
       <c r="S31">
-        <v>0.01153785254583663</v>
+        <v>0.008366663773938236</v>
       </c>
       <c r="T31">
-        <v>0.01464403423033599</v>
+        <v>0.01114850758241783</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H32">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I32">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J32">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.6605755</v>
+        <v>1.2391355</v>
       </c>
       <c r="N32">
-        <v>3.321151</v>
+        <v>2.478271</v>
       </c>
       <c r="O32">
-        <v>0.418347651036244</v>
+        <v>0.4554244343957924</v>
       </c>
       <c r="P32">
-        <v>0.3376807885245403</v>
+        <v>0.3738439521513966</v>
       </c>
       <c r="Q32">
-        <v>112.4709507613268</v>
+        <v>72.52596679066916</v>
       </c>
       <c r="R32">
-        <v>674.8257045679609</v>
+        <v>435.1558007440149</v>
       </c>
       <c r="S32">
-        <v>0.08386593820498549</v>
+        <v>0.06886758664216758</v>
       </c>
       <c r="T32">
-        <v>0.07096269517827018</v>
+        <v>0.06117697827215926</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H33">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I33">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J33">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.264467</v>
       </c>
       <c r="O33">
-        <v>0.02220899686616725</v>
+        <v>0.03240020532899807</v>
       </c>
       <c r="P33">
-        <v>0.02688990205465503</v>
+        <v>0.03989450245498713</v>
       </c>
       <c r="Q33">
-        <v>5.970792442137445</v>
+        <v>5.159706063683888</v>
       </c>
       <c r="R33">
-        <v>53.73713197923701</v>
+        <v>46.437354573155</v>
       </c>
       <c r="S33">
-        <v>0.00445222616682347</v>
+        <v>0.004899438368253279</v>
       </c>
       <c r="T33">
-        <v>0.005650839454668453</v>
+        <v>0.006528459523879004</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H34">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I34">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J34">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.3906076666666667</v>
+        <v>0.1900623333333333</v>
       </c>
       <c r="N34">
-        <v>1.171823</v>
+        <v>0.570187</v>
       </c>
       <c r="O34">
-        <v>0.09840552255934656</v>
+        <v>0.06985437077565602</v>
       </c>
       <c r="P34">
-        <v>0.1191460775650347</v>
+        <v>0.08601196622376987</v>
       </c>
       <c r="Q34">
-        <v>26.45589775632811</v>
+        <v>11.12425112143944</v>
       </c>
       <c r="R34">
-        <v>238.103079806953</v>
+        <v>100.118260092955</v>
       </c>
       <c r="S34">
-        <v>0.01972730444057512</v>
+        <v>0.01056311776092757</v>
       </c>
       <c r="T34">
-        <v>0.02503822269806044</v>
+        <v>0.01407526364552854</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H35">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I35">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J35">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.4123475</v>
+        <v>0.2942155</v>
       </c>
       <c r="N35">
-        <v>0.824695</v>
+        <v>0.588431</v>
       </c>
       <c r="O35">
-        <v>0.1038824239160867</v>
+        <v>0.1081342013669815</v>
       </c>
       <c r="P35">
-        <v>0.08385154962609223</v>
+        <v>0.08876404985911487</v>
       </c>
       <c r="Q35">
-        <v>27.92833892169083</v>
+        <v>17.22028267473583</v>
       </c>
       <c r="R35">
-        <v>167.570033530145</v>
+        <v>103.321696048415</v>
       </c>
       <c r="S35">
-        <v>0.02082525603562154</v>
+        <v>0.01635165116140943</v>
       </c>
       <c r="T35">
-        <v>0.01762117407490462</v>
+        <v>0.01452562310645807</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H36">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I36">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J36">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.847826</v>
+        <v>0.7239923333333333</v>
       </c>
       <c r="N36">
-        <v>2.543478</v>
+        <v>2.171977</v>
       </c>
       <c r="O36">
-        <v>0.2135922248566564</v>
+        <v>0.2660918026440396</v>
       </c>
       <c r="P36">
-        <v>0.2586102398339675</v>
+        <v>0.3276399012303069</v>
       </c>
       <c r="Q36">
-        <v>57.42334287129533</v>
+        <v>42.37490082725611</v>
       </c>
       <c r="R36">
-        <v>516.810085841658</v>
+        <v>381.374107445305</v>
       </c>
       <c r="S36">
-        <v>0.0428187233429495</v>
+        <v>0.0402374112791526</v>
       </c>
       <c r="T36">
-        <v>0.05434623538846512</v>
+        <v>0.05361600476163812</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H37">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I37">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J37">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.569855</v>
+        <v>0.1852753333333333</v>
       </c>
       <c r="N37">
-        <v>1.709565</v>
+        <v>0.555826</v>
       </c>
       <c r="O37">
-        <v>0.143563180765499</v>
+        <v>0.06809498548853234</v>
       </c>
       <c r="P37">
-        <v>0.1738214423957104</v>
+        <v>0.08384562808042469</v>
       </c>
       <c r="Q37">
-        <v>38.59633822496833</v>
+        <v>10.84407046078778</v>
       </c>
       <c r="R37">
-        <v>347.367044024715</v>
+        <v>97.59663414709</v>
       </c>
       <c r="S37">
-        <v>0.02878003693045093</v>
+        <v>0.01029707007102114</v>
       </c>
       <c r="T37">
-        <v>0.03652810124635691</v>
+        <v>0.01372075738492731</v>
       </c>
     </row>
   </sheetData>
